--- a/ReadExcel/Import/Test.xlsx
+++ b/ReadExcel/Import/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Github\OpenXML\ReadExcel\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Github\OpenXMLNew\ReadExcel\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D367FC90-99EF-43AD-A0D5-301F70FDF2B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB985825-1852-4D82-B3F5-ABDE794CCE3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="19155" windowHeight="8220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="375" windowWidth="19155" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1(MODEL)" sheetId="7" r:id="rId1"/>
@@ -791,6 +791,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,9 +835,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3623,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10:AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3706,31 +3706,31 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="30"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
@@ -3744,33 +3744,33 @@
       <c r="AR7" s="4"/>
     </row>
     <row r="8" spans="1:45" ht="12" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
@@ -3787,26 +3787,26 @@
       <c r="AE8" s="24"/>
       <c r="AF8" s="24"/>
       <c r="AG8" s="24"/>
-      <c r="AH8" s="30" t="s">
+      <c r="AH8" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AI8" s="27" t="s">
+      <c r="AI8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="30" t="s">
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="AR8" s="30" t="s">
+      <c r="AR8" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AS8" s="30" t="s">
+      <c r="AS8" s="31" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3820,13 +3820,13 @@
       <c r="C9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="23" t="s">
         <v>52</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="AG9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AH9" s="31"/>
+      <c r="AH9" s="32"/>
       <c r="AI9" s="7" t="s">
         <v>4</v>
       </c>
@@ -3921,9 +3921,9 @@
       <c r="AP9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="8" t="s">
@@ -7585,17 +7585,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AI8:AP8"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AS8:AS9"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="K7:AG7"/>
     <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="AI8:AP8"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AS8:AS9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7613,8 +7613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A7C6AE-B26F-4C6E-9B90-1843DB0B79A4}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AP10" sqref="AJ10:AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7647,12 +7647,12 @@
     <row r="3" spans="1:45" s="1" customFormat="1" ht="14.25"/>
     <row r="4" spans="1:45" s="1" customFormat="1" ht="14.25"/>
     <row r="5" spans="1:45" s="1" customFormat="1" ht="14.25">
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="3" t="s">
@@ -7703,31 +7703,31 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="30"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
@@ -7741,33 +7741,33 @@
       <c r="AR7" s="4"/>
     </row>
     <row r="8" spans="1:45" ht="12" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
@@ -7784,26 +7784,26 @@
       <c r="AE8" s="24"/>
       <c r="AF8" s="24"/>
       <c r="AG8" s="24"/>
-      <c r="AH8" s="30" t="s">
+      <c r="AH8" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AI8" s="27" t="s">
+      <c r="AI8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="30" t="s">
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="AR8" s="30" t="s">
+      <c r="AR8" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AS8" s="30" t="s">
+      <c r="AS8" s="31" t="s">
         <v>152</v>
       </c>
     </row>
@@ -7817,13 +7817,13 @@
       <c r="C9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="23" t="s">
         <v>52</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="AG9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AH9" s="31"/>
+      <c r="AH9" s="32"/>
       <c r="AI9" s="7" t="s">
         <v>4</v>
       </c>
@@ -7918,9 +7918,9 @@
       <c r="AP9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="8" t="s">

--- a/ReadExcel/Import/Test.xlsx
+++ b/ReadExcel/Import/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Github\OpenXMLNew\ReadExcel\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\OpenXMLNew\ReadExcel\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9181B342-8C05-4190-AB1C-1A161DEB9C68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD2AEC-0419-4889-9A01-ACEA0B80FFD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="375" windowWidth="19155" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,19 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sheet1(MODEL)'!$A:$J,'Sheet1(MODEL)'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Sheet2(MODEL)'!$A:$J,'Sheet2(MODEL)'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="155">
   <si>
     <t>4D</t>
   </si>
@@ -489,349 +496,10 @@
     <t>Error Description</t>
   </si>
   <si>
-    <t>KN1</t>
-  </si>
-  <si>
-    <t>NB6</t>
-  </si>
-  <si>
-    <t>KN3</t>
-  </si>
-  <si>
-    <t>CR4</t>
-  </si>
-  <si>
-    <t>KN4</t>
-  </si>
-  <si>
-    <t>NB9</t>
-  </si>
-  <si>
-    <t>CR5</t>
-  </si>
-  <si>
-    <t>KN5</t>
-  </si>
-  <si>
-    <t>NB10</t>
-  </si>
-  <si>
-    <t>CR6</t>
-  </si>
-  <si>
-    <t>KN6</t>
-  </si>
-  <si>
-    <t>NB11</t>
-  </si>
-  <si>
-    <t>CR7</t>
-  </si>
-  <si>
-    <t>KN7</t>
-  </si>
-  <si>
-    <t>NB12</t>
-  </si>
-  <si>
-    <t>CR8</t>
-  </si>
-  <si>
-    <t>KN8</t>
-  </si>
-  <si>
-    <t>NB13</t>
-  </si>
-  <si>
-    <t>CR9</t>
-  </si>
-  <si>
-    <t>KN9</t>
-  </si>
-  <si>
-    <t>NB14</t>
-  </si>
-  <si>
-    <t>CR10</t>
-  </si>
-  <si>
-    <t>KN10</t>
-  </si>
-  <si>
-    <t>NB15</t>
-  </si>
-  <si>
-    <t>CR11</t>
-  </si>
-  <si>
-    <t>KN11</t>
-  </si>
-  <si>
-    <t>NB16</t>
-  </si>
-  <si>
-    <t>CR12</t>
-  </si>
-  <si>
-    <t>KN12</t>
-  </si>
-  <si>
-    <t>NB17</t>
-  </si>
-  <si>
-    <t>CR13</t>
-  </si>
-  <si>
-    <t>KN13</t>
-  </si>
-  <si>
-    <t>NB18</t>
-  </si>
-  <si>
-    <t>CR14</t>
-  </si>
-  <si>
-    <t>KN14</t>
-  </si>
-  <si>
-    <t>NB19</t>
-  </si>
-  <si>
-    <t>CR15</t>
-  </si>
-  <si>
-    <t>KN15</t>
-  </si>
-  <si>
-    <t>NB20</t>
-  </si>
-  <si>
-    <t>CR16</t>
-  </si>
-  <si>
-    <t>KN16</t>
-  </si>
-  <si>
-    <t>NB21</t>
-  </si>
-  <si>
-    <t>CR17</t>
-  </si>
-  <si>
-    <t>KN17</t>
-  </si>
-  <si>
-    <t>NB22</t>
-  </si>
-  <si>
-    <t>CR18</t>
-  </si>
-  <si>
-    <t>KN18</t>
-  </si>
-  <si>
-    <t>NB23</t>
-  </si>
-  <si>
-    <t>CR19</t>
-  </si>
-  <si>
-    <t>KN19</t>
-  </si>
-  <si>
-    <t>NB24</t>
-  </si>
-  <si>
-    <t>CR20</t>
-  </si>
-  <si>
-    <t>KN20</t>
-  </si>
-  <si>
-    <t>NB25</t>
-  </si>
-  <si>
-    <t>CR21</t>
-  </si>
-  <si>
-    <t>KN21</t>
-  </si>
-  <si>
-    <t>NB26</t>
-  </si>
-  <si>
-    <t>CR22</t>
-  </si>
-  <si>
-    <t>KN22</t>
-  </si>
-  <si>
-    <t>NB27</t>
-  </si>
-  <si>
-    <t>CR23</t>
-  </si>
-  <si>
-    <t>KN23</t>
-  </si>
-  <si>
-    <t>NB28</t>
-  </si>
-  <si>
-    <t>CR24</t>
-  </si>
-  <si>
-    <t>KN24</t>
-  </si>
-  <si>
-    <t>NB29</t>
-  </si>
-  <si>
-    <t>CR25</t>
-  </si>
-  <si>
-    <t>KN25</t>
-  </si>
-  <si>
-    <t>NB30</t>
-  </si>
-  <si>
-    <t>CR26</t>
-  </si>
-  <si>
-    <t>KN26</t>
-  </si>
-  <si>
-    <t>NB31</t>
-  </si>
-  <si>
-    <t>CR27</t>
-  </si>
-  <si>
-    <t>KN27</t>
-  </si>
-  <si>
-    <t>NB32</t>
-  </si>
-  <si>
-    <t>CR28</t>
-  </si>
-  <si>
-    <t>KN28</t>
-  </si>
-  <si>
-    <t>NB33</t>
-  </si>
-  <si>
-    <t>CR29</t>
-  </si>
-  <si>
-    <t>KN29</t>
-  </si>
-  <si>
-    <t>NB34</t>
-  </si>
-  <si>
-    <t>CR30</t>
-  </si>
-  <si>
-    <t>KN30</t>
-  </si>
-  <si>
-    <t>NB35</t>
-  </si>
-  <si>
-    <t>CR31</t>
-  </si>
-  <si>
-    <t>KN31</t>
-  </si>
-  <si>
-    <t>NB36</t>
-  </si>
-  <si>
-    <t>CR32</t>
-  </si>
-  <si>
-    <t>KN32</t>
-  </si>
-  <si>
-    <t>NB37</t>
-  </si>
-  <si>
-    <t>CR33</t>
-  </si>
-  <si>
-    <t>KN33</t>
-  </si>
-  <si>
-    <t>NB38</t>
-  </si>
-  <si>
-    <t>CR34</t>
-  </si>
-  <si>
-    <t>KN34</t>
-  </si>
-  <si>
-    <t>NB39</t>
-  </si>
-  <si>
-    <t>CR35</t>
-  </si>
-  <si>
-    <t>KN35</t>
-  </si>
-  <si>
-    <t>NB40</t>
-  </si>
-  <si>
-    <t>CR36</t>
-  </si>
-  <si>
-    <t>KN36</t>
-  </si>
-  <si>
-    <t>NB41</t>
-  </si>
-  <si>
-    <t>CR37</t>
-  </si>
-  <si>
-    <t>KN37</t>
-  </si>
-  <si>
-    <t>NB42</t>
-  </si>
-  <si>
-    <t>CR38</t>
-  </si>
-  <si>
-    <t>KN38</t>
-  </si>
-  <si>
-    <t>NB43</t>
-  </si>
-  <si>
-    <t>CR39</t>
-  </si>
-  <si>
-    <t>KN39</t>
-  </si>
-  <si>
-    <t>NB44</t>
-  </si>
-  <si>
-    <t>CR40</t>
-  </si>
-  <si>
-    <t>KN40</t>
-  </si>
-  <si>
-    <t>NB45</t>
-  </si>
-  <si>
-    <t>SSS</t>
+    <t>K</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +722,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,9 +803,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3971,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4054,31 +3719,31 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="31"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="30"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
@@ -4092,33 +3757,33 @@
       <c r="AR7" s="4"/>
     </row>
     <row r="8" spans="1:45" ht="12" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
@@ -4135,26 +3800,26 @@
       <c r="AE8" s="23"/>
       <c r="AF8" s="23"/>
       <c r="AG8" s="23"/>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AI8" s="29" t="s">
+      <c r="AI8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="32" t="s">
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="AR8" s="32" t="s">
+      <c r="AR8" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AS8" s="32" t="s">
+      <c r="AS8" s="31" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4168,13 +3833,13 @@
       <c r="C9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="22" t="s">
         <v>52</v>
       </c>
@@ -4244,7 +3909,7 @@
       <c r="AG9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AH9" s="33"/>
+      <c r="AH9" s="32"/>
       <c r="AI9" s="7" t="s">
         <v>4</v>
       </c>
@@ -4269,36 +3934,36 @@
       <c r="AP9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
     </row>
     <row r="10" spans="1:45">
-      <c r="A10" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="G10" s="21">
         <v>6</v>
       </c>
       <c r="H10" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>3</v>
@@ -4320,13 +3985,13 @@
         <v>3</v>
       </c>
       <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="S10" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="T10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="U10" s="13"/>
       <c r="V10" s="13" t="s">
         <v>3</v>
       </c>
@@ -4339,7 +4004,9 @@
       <c r="Y10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Z10" s="13"/>
+      <c r="Z10" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="AA10" s="13" t="s">
         <v>3</v>
       </c>
@@ -4349,13 +4016,17 @@
         <v>3</v>
       </c>
       <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
+      <c r="AF10" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG10" s="13"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="AH10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
       <c r="AL10" s="13"/>
       <c r="AM10" s="13"/>
@@ -4365,13 +4036,19 @@
       <c r="AQ10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AR10" s="17"/>
+      <c r="AR10" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="AS10" s="10"/>
     </row>
     <row r="11" spans="1:45">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
@@ -4387,7 +4064,7 @@
       <c r="H11" s="21">
         <v>3</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -4466,13 +4143,13 @@
       <c r="B12" s="16"/>
       <c r="C12" s="15"/>
       <c r="D12" s="10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="G12" s="21">
         <v>6</v>
@@ -4480,11 +4157,11 @@
       <c r="H12" s="21">
         <v>3</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>3</v>
@@ -4506,13 +4183,11 @@
         <v>3</v>
       </c>
       <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
       <c r="V12" s="13" t="s">
         <v>3</v>
       </c>
@@ -4535,14 +4210,16 @@
         <v>3</v>
       </c>
       <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
+      <c r="AF12" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="17"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="AL12" s="13"/>
       <c r="AM12" s="13"/>
       <c r="AN12" s="13"/>
@@ -4559,13 +4236,13 @@
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
       <c r="D13" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="G13" s="21">
         <v>6</v>
@@ -4573,15 +4250,13 @@
       <c r="H13" s="21">
         <v>3</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
         <v>3</v>
       </c>
@@ -4622,20 +4297,24 @@
       <c r="AA13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB13" s="13"/>
+      <c r="AB13" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
+      <c r="AF13" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="13"/>
-      <c r="AJ13" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="AL13" s="13"/>
       <c r="AM13" s="13"/>
       <c r="AN13" s="13"/>
@@ -4652,13 +4331,13 @@
       <c r="B14" s="16"/>
       <c r="C14" s="15"/>
       <c r="D14" s="10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="G14" s="21">
         <v>6</v>
@@ -4666,15 +4345,13 @@
       <c r="H14" s="21">
         <v>3</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
         <v>3</v>
       </c>
@@ -4692,44 +4369,42 @@
         <v>3</v>
       </c>
       <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
       <c r="V14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="W14" s="13"/>
       <c r="X14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB14" s="13"/>
+      <c r="AB14" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC14" s="13"/>
       <c r="AD14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AE14" s="13"/>
+      <c r="AE14" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AF14" s="13"/>
       <c r="AG14" s="13"/>
       <c r="AH14" s="17"/>
       <c r="AI14" s="13"/>
-      <c r="AJ14" s="13" t="s">
-        <v>161</v>
-      </c>
+      <c r="AJ14" s="13"/>
       <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
+      <c r="AL14" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="AM14" s="13"/>
       <c r="AN14" s="13"/>
       <c r="AO14" s="13"/>
@@ -4745,13 +4420,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="15"/>
       <c r="D15" s="10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="G15" s="21">
         <v>6</v>
@@ -4759,15 +4434,13 @@
       <c r="H15" s="21">
         <v>3</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
         <v>3</v>
       </c>
@@ -4785,13 +4458,11 @@
         <v>3</v>
       </c>
       <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
       <c r="V15" s="13" t="s">
         <v>3</v>
       </c>
@@ -4808,21 +4479,25 @@
       <c r="AA15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB15" s="13"/>
+      <c r="AB15" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC15" s="13"/>
       <c r="AD15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AE15" s="13"/>
+      <c r="AE15" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AF15" s="13"/>
       <c r="AG15" s="13"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="13"/>
-      <c r="AJ15" s="13" t="s">
-        <v>164</v>
-      </c>
+      <c r="AJ15" s="13"/>
       <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
+      <c r="AL15" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="AM15" s="13"/>
       <c r="AN15" s="13"/>
       <c r="AO15" s="13"/>
@@ -4834,9 +4509,15 @@
       <c r="AS15" s="10"/>
     </row>
     <row r="16" spans="1:45">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="D16" s="10" t="s">
         <v>8</v>
       </c>
@@ -4844,7 +4525,7 @@
         <v>81</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="G16" s="21">
         <v>6</v>
@@ -4852,11 +4533,11 @@
       <c r="H16" s="21">
         <v>3</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>3</v>
@@ -4912,7 +4593,7 @@
       <c r="AH16" s="17"/>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="AK16" s="13"/>
       <c r="AL16" s="13"/>
@@ -4927,29 +4608,35 @@
       <c r="AS16" s="10"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="D17" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="G17" s="21">
         <v>6</v>
       </c>
       <c r="H17" s="21">
-        <v>3</v>
-      </c>
-      <c r="I17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>3</v>
@@ -4971,13 +4658,11 @@
         <v>3</v>
       </c>
       <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
       <c r="V17" s="13" t="s">
         <v>3</v>
       </c>
@@ -5000,13 +4685,17 @@
         <v>3</v>
       </c>
       <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
+      <c r="AF17" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG17" s="13"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13" t="s">
-        <v>170</v>
-      </c>
+      <c r="AH17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ17" s="13"/>
       <c r="AK17" s="13"/>
       <c r="AL17" s="13"/>
       <c r="AM17" s="13"/>
@@ -5024,29 +4713,27 @@
       <c r="B18" s="16"/>
       <c r="C18" s="15"/>
       <c r="D18" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="G18" s="21">
         <v>6</v>
       </c>
       <c r="H18" s="21">
-        <v>3</v>
-      </c>
-      <c r="I18" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K18" s="13"/>
       <c r="L18" s="13" t="s">
         <v>3</v>
       </c>
@@ -5087,7 +4774,9 @@
       <c r="AA18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB18" s="13"/>
+      <c r="AB18" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC18" s="13"/>
       <c r="AD18" s="13" t="s">
         <v>3</v>
@@ -5097,12 +4786,12 @@
       <c r="AG18" s="13"/>
       <c r="AH18" s="17"/>
       <c r="AI18" s="13"/>
-      <c r="AJ18" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="AJ18" s="13"/>
       <c r="AK18" s="13"/>
       <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
+      <c r="AM18" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="AN18" s="13"/>
       <c r="AO18" s="13"/>
       <c r="AP18" s="13"/>
@@ -5117,29 +4806,27 @@
       <c r="B19" s="16"/>
       <c r="C19" s="15"/>
       <c r="D19" s="10" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="G19" s="21">
         <v>6</v>
       </c>
       <c r="H19" s="21">
-        <v>3</v>
-      </c>
-      <c r="I19" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="K19" s="13"/>
       <c r="L19" s="13" t="s">
         <v>3</v>
       </c>
@@ -5176,12 +4863,18 @@
       <c r="Y19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Z19" s="13"/>
+      <c r="Z19" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AA19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
+      <c r="AB19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AD19" s="13" t="s">
         <v>3</v>
       </c>
@@ -5190,12 +4883,12 @@
       <c r="AG19" s="13"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="13"/>
-      <c r="AJ19" s="13" t="s">
-        <v>176</v>
-      </c>
+      <c r="AJ19" s="13"/>
       <c r="AK19" s="13"/>
       <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
+      <c r="AM19" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="AN19" s="13"/>
       <c r="AO19" s="13"/>
       <c r="AP19" s="13"/>
@@ -5210,13 +4903,13 @@
       <c r="B20" s="16"/>
       <c r="C20" s="15"/>
       <c r="D20" s="10" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="G20" s="21">
         <v>6</v>
@@ -5224,15 +4917,13 @@
       <c r="H20" s="21">
         <v>3</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K20" s="13"/>
       <c r="L20" s="13" t="s">
         <v>3</v>
       </c>
@@ -5273,23 +4964,27 @@
       <c r="AA20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB20" s="13"/>
+      <c r="AB20" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC20" s="13"/>
       <c r="AD20" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
+      <c r="AF20" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="17"/>
       <c r="AI20" s="13"/>
-      <c r="AJ20" s="13" t="s">
-        <v>179</v>
-      </c>
+      <c r="AJ20" s="13"/>
       <c r="AK20" s="13"/>
       <c r="AL20" s="13"/>
       <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
+      <c r="AN20" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="AO20" s="13"/>
       <c r="AP20" s="13"/>
       <c r="AQ20" s="10" t="s">
@@ -5303,29 +4998,27 @@
       <c r="B21" s="16"/>
       <c r="C21" s="15"/>
       <c r="D21" s="10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="G21" s="21">
         <v>6</v>
       </c>
       <c r="H21" s="21">
-        <v>3</v>
-      </c>
-      <c r="I21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K21" s="13"/>
       <c r="L21" s="13" t="s">
         <v>3</v>
       </c>
@@ -5343,13 +5036,11 @@
         <v>3</v>
       </c>
       <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
       <c r="V21" s="13" t="s">
         <v>3</v>
       </c>
@@ -5359,9 +5050,7 @@
       <c r="X21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y21" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13" t="s">
         <v>3</v>
@@ -5371,18 +5060,20 @@
       <c r="AD21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AE21" s="13"/>
+      <c r="AE21" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
       <c r="AH21" s="17"/>
       <c r="AI21" s="13"/>
-      <c r="AJ21" s="13" t="s">
-        <v>182</v>
-      </c>
+      <c r="AJ21" s="13"/>
       <c r="AK21" s="13"/>
       <c r="AL21" s="13"/>
       <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
+      <c r="AN21" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="AO21" s="13"/>
       <c r="AP21" s="13"/>
       <c r="AQ21" s="10" t="s">
@@ -5396,25 +5087,25 @@
       <c r="B22" s="16"/>
       <c r="C22" s="15"/>
       <c r="D22" s="10" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="G22" s="21">
         <v>6</v>
       </c>
       <c r="H22" s="21">
-        <v>3</v>
-      </c>
-      <c r="I22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>3</v>
@@ -5436,13 +5127,11 @@
         <v>3</v>
       </c>
       <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
       <c r="V22" s="13" t="s">
         <v>3</v>
       </c>
@@ -5452,9 +5141,7 @@
       <c r="X22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13" t="s">
         <v>3</v>
@@ -5464,18 +5151,20 @@
       <c r="AD22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AE22" s="13"/>
+      <c r="AE22" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AF22" s="13"/>
       <c r="AG22" s="13"/>
       <c r="AH22" s="17"/>
       <c r="AI22" s="13"/>
-      <c r="AJ22" s="13" t="s">
-        <v>185</v>
-      </c>
+      <c r="AJ22" s="13"/>
       <c r="AK22" s="13"/>
       <c r="AL22" s="13"/>
       <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
+      <c r="AN22" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="AO22" s="13"/>
       <c r="AP22" s="13"/>
       <c r="AQ22" s="10" t="s">
@@ -5488,30 +5177,28 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="G23" s="21">
         <v>6</v>
       </c>
       <c r="H23" s="21">
-        <v>3</v>
-      </c>
-      <c r="I23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K23" s="13"/>
       <c r="L23" s="13" t="s">
         <v>3</v>
       </c>
@@ -5529,13 +5216,11 @@
         <v>3</v>
       </c>
       <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
       <c r="V23" s="13" t="s">
         <v>3</v>
       </c>
@@ -5552,7 +5237,9 @@
       <c r="AA23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB23" s="13"/>
+      <c r="AB23" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC23" s="13"/>
       <c r="AD23" s="13" t="s">
         <v>3</v>
@@ -5562,13 +5249,13 @@
       <c r="AG23" s="13"/>
       <c r="AH23" s="17"/>
       <c r="AI23" s="13"/>
-      <c r="AJ23" s="13" t="s">
-        <v>188</v>
-      </c>
+      <c r="AJ23" s="13"/>
       <c r="AK23" s="13"/>
       <c r="AL23" s="13"/>
       <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
+      <c r="AN23" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="AO23" s="13"/>
       <c r="AP23" s="13"/>
       <c r="AQ23" s="10" t="s">
@@ -5581,26 +5268,22 @@
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="11" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="G24" s="21">
         <v>6</v>
       </c>
       <c r="H24" s="21">
-        <v>3</v>
-      </c>
-      <c r="I24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>3</v>
@@ -5622,13 +5305,11 @@
         <v>3</v>
       </c>
       <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
       <c r="V24" s="13" t="s">
         <v>3</v>
       </c>
@@ -5645,7 +5326,9 @@
       <c r="AA24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB24" s="13"/>
+      <c r="AB24" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC24" s="13"/>
       <c r="AD24" s="13" t="s">
         <v>3</v>
@@ -5655,13 +5338,13 @@
       <c r="AG24" s="13"/>
       <c r="AH24" s="17"/>
       <c r="AI24" s="13"/>
-      <c r="AJ24" s="13" t="s">
-        <v>191</v>
-      </c>
+      <c r="AJ24" s="13"/>
       <c r="AK24" s="13"/>
       <c r="AL24" s="13"/>
       <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
+      <c r="AN24" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="AO24" s="13"/>
       <c r="AP24" s="13"/>
       <c r="AQ24" s="10" t="s">
@@ -5675,25 +5358,25 @@
       <c r="B25" s="16"/>
       <c r="C25" s="15"/>
       <c r="D25" s="10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="G25" s="21">
         <v>6</v>
       </c>
       <c r="H25" s="21">
-        <v>3</v>
-      </c>
-      <c r="I25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>3</v>
@@ -5738,7 +5421,9 @@
       <c r="AA25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB25" s="13"/>
+      <c r="AB25" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13" t="s">
         <v>3</v>
@@ -5748,13 +5433,13 @@
       <c r="AG25" s="13"/>
       <c r="AH25" s="17"/>
       <c r="AI25" s="13"/>
-      <c r="AJ25" s="13" t="s">
-        <v>194</v>
-      </c>
+      <c r="AJ25" s="13"/>
       <c r="AK25" s="13"/>
       <c r="AL25" s="13"/>
       <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
+      <c r="AN25" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="AO25" s="13"/>
       <c r="AP25" s="13"/>
       <c r="AQ25" s="10" t="s">
@@ -5768,13 +5453,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="15"/>
       <c r="D26" s="10" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="G26" s="21">
         <v>6</v>
@@ -5782,11 +5467,11 @@
       <c r="H26" s="21">
         <v>3</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>3</v>
@@ -5808,13 +5493,11 @@
         <v>3</v>
       </c>
       <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
       <c r="V26" s="13" t="s">
         <v>3</v>
       </c>
@@ -5841,14 +5524,14 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="17"/>
       <c r="AI26" s="13"/>
-      <c r="AJ26" s="13" t="s">
-        <v>197</v>
-      </c>
+      <c r="AJ26" s="13"/>
       <c r="AK26" s="13"/>
       <c r="AL26" s="13"/>
       <c r="AM26" s="13"/>
       <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
+      <c r="AO26" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="AP26" s="13"/>
       <c r="AQ26" s="10" t="s">
         <v>87</v>
@@ -5857,29 +5540,35 @@
       <c r="AS26" s="10"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="D27" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="G27" s="21">
         <v>6</v>
       </c>
       <c r="H27" s="21">
-        <v>3</v>
-      </c>
-      <c r="I27" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>3</v>
@@ -5901,13 +5590,11 @@
         <v>3</v>
       </c>
       <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
       <c r="V27" s="13" t="s">
         <v>3</v>
       </c>
@@ -5930,13 +5617,17 @@
         <v>3</v>
       </c>
       <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
+      <c r="AF27" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG27" s="13"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13" t="s">
-        <v>200</v>
-      </c>
+      <c r="AH27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ27" s="13"/>
       <c r="AK27" s="13"/>
       <c r="AL27" s="13"/>
       <c r="AM27" s="13"/>
@@ -5951,28 +5642,32 @@
     </row>
     <row r="28" spans="1:45">
       <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="D28" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="G28" s="21">
         <v>6</v>
       </c>
       <c r="H28" s="21">
-        <v>3</v>
-      </c>
-      <c r="I28" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>3</v>
@@ -6013,22 +5708,30 @@
       <c r="Y28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Z28" s="13"/>
+      <c r="Z28" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AA28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
+      <c r="AB28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AD28" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE28" s="13"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
-      <c r="AH28" s="17"/>
+      <c r="AH28" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="AK28" s="13"/>
       <c r="AL28" s="13"/>
@@ -6047,25 +5750,25 @@
       <c r="B29" s="16"/>
       <c r="C29" s="15"/>
       <c r="D29" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="G29" s="21">
         <v>6</v>
       </c>
       <c r="H29" s="21">
-        <v>3</v>
-      </c>
-      <c r="I29" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>3</v>
@@ -6110,20 +5813,24 @@
       <c r="AA29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB29" s="13"/>
+      <c r="AB29" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC29" s="13"/>
       <c r="AD29" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
+      <c r="AF29" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="17"/>
       <c r="AI29" s="13"/>
-      <c r="AJ29" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
       <c r="AN29" s="13"/>
@@ -6140,25 +5847,25 @@
       <c r="B30" s="16"/>
       <c r="C30" s="15"/>
       <c r="D30" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="G30" s="21">
         <v>6</v>
       </c>
       <c r="H30" s="21">
-        <v>3</v>
-      </c>
-      <c r="I30" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>3</v>
@@ -6199,25 +5906,33 @@
       <c r="Y30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Z30" s="13"/>
+      <c r="Z30" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AA30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
+      <c r="AB30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AD30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AE30" s="13"/>
+      <c r="AE30" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
       <c r="AH30" s="17"/>
       <c r="AI30" s="13"/>
-      <c r="AJ30" s="13" t="s">
-        <v>209</v>
-      </c>
+      <c r="AJ30" s="13"/>
       <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
+      <c r="AL30" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="AM30" s="13"/>
       <c r="AN30" s="13"/>
       <c r="AO30" s="13"/>
@@ -6232,26 +5947,26 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>81</v>
+      <c r="D31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="G31" s="21">
         <v>6</v>
       </c>
       <c r="H31" s="21">
-        <v>3</v>
-      </c>
-      <c r="I31" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>3</v>
@@ -6265,7 +5980,9 @@
       <c r="N31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O31" s="13"/>
+      <c r="O31" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="P31" s="13" t="s">
         <v>3</v>
       </c>
@@ -6273,13 +5990,11 @@
         <v>3</v>
       </c>
       <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U31" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S31" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
       <c r="V31" s="13" t="s">
         <v>3</v>
       </c>
@@ -6296,7 +6011,9 @@
       <c r="AA31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB31" s="13"/>
+      <c r="AB31" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC31" s="13"/>
       <c r="AD31" s="13" t="s">
         <v>3</v>
@@ -6306,13 +6023,13 @@
       <c r="AG31" s="13"/>
       <c r="AH31" s="17"/>
       <c r="AI31" s="13"/>
-      <c r="AJ31" s="13" t="s">
-        <v>212</v>
-      </c>
+      <c r="AJ31" s="13"/>
       <c r="AK31" s="13"/>
       <c r="AL31" s="13"/>
       <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
+      <c r="AN31" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="10" t="s">
@@ -6325,26 +6042,22 @@
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="11" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="G32" s="21">
         <v>6</v>
       </c>
       <c r="H32" s="21">
-        <v>3</v>
-      </c>
-      <c r="I32" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>3</v>
@@ -6358,7 +6071,9 @@
       <c r="N32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="13"/>
+      <c r="O32" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="P32" s="13" t="s">
         <v>3</v>
       </c>
@@ -6366,13 +6081,11 @@
         <v>3</v>
       </c>
       <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
       <c r="V32" s="13" t="s">
         <v>3</v>
       </c>
@@ -6389,23 +6102,27 @@
       <c r="AA32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB32" s="13"/>
+      <c r="AB32" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
+      <c r="AG32" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AH32" s="17"/>
       <c r="AI32" s="13"/>
-      <c r="AJ32" s="13" t="s">
-        <v>215</v>
-      </c>
+      <c r="AJ32" s="13"/>
       <c r="AK32" s="13"/>
       <c r="AL32" s="13"/>
       <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
+      <c r="AN32" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="10" t="s">
@@ -6416,28 +6133,28 @@
     </row>
     <row r="33" spans="1:45">
       <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="G33" s="21">
         <v>6</v>
       </c>
       <c r="H33" s="21">
-        <v>3</v>
-      </c>
-      <c r="I33" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>3</v>
@@ -6459,13 +6176,11 @@
         <v>3</v>
       </c>
       <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S33" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
       <c r="V33" s="13" t="s">
         <v>3</v>
       </c>
@@ -6490,16 +6205,16 @@
       <c r="AE33" s="13"/>
       <c r="AF33" s="13"/>
       <c r="AG33" s="13"/>
-      <c r="AH33" s="17"/>
+      <c r="AH33" s="20"/>
       <c r="AI33" s="13"/>
-      <c r="AJ33" s="13" t="s">
-        <v>218</v>
-      </c>
+      <c r="AJ33" s="13"/>
       <c r="AK33" s="13"/>
       <c r="AL33" s="13"/>
       <c r="AM33" s="13"/>
       <c r="AN33" s="13"/>
-      <c r="AO33" s="13"/>
+      <c r="AO33" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="10" t="s">
         <v>87</v>
@@ -6509,16 +6224,20 @@
     </row>
     <row r="34" spans="1:45">
       <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="D34" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="G34" s="21">
         <v>6</v>
@@ -6526,15 +6245,13 @@
       <c r="H34" s="21">
         <v>3</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K34" s="13"/>
       <c r="L34" s="13" t="s">
         <v>3</v>
       </c>
@@ -6552,13 +6269,11 @@
         <v>3</v>
       </c>
       <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S34" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
       <c r="V34" s="13" t="s">
         <v>3</v>
       </c>
@@ -6583,10 +6298,12 @@
       <c r="AE34" s="13"/>
       <c r="AF34" s="13"/>
       <c r="AG34" s="13"/>
-      <c r="AH34" s="17"/>
+      <c r="AH34" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="AK34" s="13"/>
       <c r="AL34" s="13"/>
@@ -6604,14 +6321,14 @@
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="G35" s="21">
         <v>6</v>
@@ -6619,15 +6336,13 @@
       <c r="H35" s="21">
         <v>3</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K35" s="13"/>
       <c r="L35" s="13" t="s">
         <v>3</v>
       </c>
@@ -6641,17 +6356,13 @@
       <c r="P35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q35" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
       <c r="V35" s="13" t="s">
         <v>3</v>
       </c>
@@ -6668,23 +6379,27 @@
       <c r="AA35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB35" s="13"/>
+      <c r="AB35" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC35" s="13"/>
       <c r="AD35" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
+      <c r="AF35" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="17"/>
       <c r="AI35" s="13"/>
-      <c r="AJ35" s="13" t="s">
-        <v>224</v>
-      </c>
+      <c r="AJ35" s="13"/>
       <c r="AK35" s="13"/>
       <c r="AL35" s="13"/>
       <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
+      <c r="AN35" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="10" t="s">
@@ -6697,14 +6412,10 @@
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="11" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="G36" s="21">
         <v>6</v>
@@ -6712,15 +6423,13 @@
       <c r="H36" s="21">
         <v>3</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K36" s="13"/>
       <c r="L36" s="13" t="s">
         <v>3</v>
       </c>
@@ -6734,9 +6443,7 @@
       <c r="P36" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q36" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13" t="s">
@@ -6761,23 +6468,27 @@
       <c r="AA36" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB36" s="13"/>
+      <c r="AB36" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC36" s="13"/>
       <c r="AD36" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
+      <c r="AF36" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="13"/>
-      <c r="AJ36" s="13" t="s">
-        <v>227</v>
-      </c>
+      <c r="AJ36" s="13"/>
       <c r="AK36" s="13"/>
       <c r="AL36" s="13"/>
       <c r="AM36" s="13"/>
-      <c r="AN36" s="13"/>
+      <c r="AN36" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="AO36" s="13"/>
       <c r="AP36" s="13"/>
       <c r="AQ36" s="10" t="s">
@@ -6790,30 +6501,28 @@
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="G37" s="21">
         <v>6</v>
       </c>
       <c r="H37" s="21">
-        <v>3</v>
-      </c>
-      <c r="I37" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K37" s="13"/>
       <c r="L37" s="13" t="s">
         <v>3</v>
       </c>
@@ -6827,17 +6536,13 @@
       <c r="P37" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q37" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S37" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
       <c r="V37" s="13" t="s">
         <v>3</v>
       </c>
@@ -6854,7 +6559,9 @@
       <c r="AA37" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB37" s="13"/>
+      <c r="AB37" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC37" s="13"/>
       <c r="AD37" s="13" t="s">
         <v>3</v>
@@ -6864,13 +6571,13 @@
       <c r="AG37" s="13"/>
       <c r="AH37" s="17"/>
       <c r="AI37" s="13"/>
-      <c r="AJ37" s="13" t="s">
-        <v>230</v>
-      </c>
+      <c r="AJ37" s="13"/>
       <c r="AK37" s="13"/>
       <c r="AL37" s="13"/>
       <c r="AM37" s="13"/>
-      <c r="AN37" s="13"/>
+      <c r="AN37" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="AO37" s="13"/>
       <c r="AP37" s="13"/>
       <c r="AQ37" s="10" t="s">
@@ -6883,30 +6590,24 @@
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="11" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="G38" s="21">
         <v>6</v>
       </c>
       <c r="H38" s="21">
-        <v>3</v>
-      </c>
-      <c r="I38" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K38" s="13"/>
       <c r="L38" s="13" t="s">
         <v>3</v>
       </c>
@@ -6920,9 +6621,7 @@
       <c r="P38" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q38" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13" t="s">
@@ -6947,7 +6646,9 @@
       <c r="AA38" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB38" s="13"/>
+      <c r="AB38" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC38" s="13"/>
       <c r="AD38" s="13" t="s">
         <v>3</v>
@@ -6957,13 +6658,13 @@
       <c r="AG38" s="13"/>
       <c r="AH38" s="17"/>
       <c r="AI38" s="13"/>
-      <c r="AJ38" s="13" t="s">
-        <v>233</v>
-      </c>
+      <c r="AJ38" s="13"/>
       <c r="AK38" s="13"/>
       <c r="AL38" s="13"/>
       <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
+      <c r="AN38" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="AO38" s="13"/>
       <c r="AP38" s="13"/>
       <c r="AQ38" s="10" t="s">
@@ -6976,30 +6677,28 @@
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="G39" s="21">
         <v>6</v>
       </c>
       <c r="H39" s="21">
-        <v>3</v>
-      </c>
-      <c r="I39" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K39" s="13"/>
       <c r="L39" s="13" t="s">
         <v>3</v>
       </c>
@@ -7009,38 +6708,32 @@
       <c r="N39" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q39" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="O39" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U39" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S39" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
       <c r="V39" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W39" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="W39" s="13"/>
       <c r="X39" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y39" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB39" s="13"/>
+      <c r="AB39" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC39" s="13"/>
       <c r="AD39" s="13" t="s">
         <v>3</v>
@@ -7050,13 +6743,13 @@
       <c r="AG39" s="13"/>
       <c r="AH39" s="17"/>
       <c r="AI39" s="13"/>
-      <c r="AJ39" s="13" t="s">
-        <v>236</v>
-      </c>
+      <c r="AJ39" s="13"/>
       <c r="AK39" s="13"/>
       <c r="AL39" s="13"/>
       <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
+      <c r="AN39" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="AO39" s="13"/>
       <c r="AP39" s="13"/>
       <c r="AQ39" s="10" t="s">
@@ -7069,30 +6762,24 @@
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="11" t="s">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="G40" s="21">
         <v>6</v>
       </c>
       <c r="H40" s="21">
-        <v>3</v>
-      </c>
-      <c r="I40" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="K40" s="13"/>
       <c r="L40" s="13" t="s">
         <v>3</v>
       </c>
@@ -7102,54 +6789,50 @@
       <c r="N40" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="O40" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S40" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
       <c r="V40" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="W40" s="13"/>
       <c r="X40" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB40" s="13"/>
+      <c r="AB40" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC40" s="13"/>
       <c r="AD40" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE40" s="13"/>
       <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
+      <c r="AG40" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AH40" s="17"/>
       <c r="AI40" s="13"/>
-      <c r="AJ40" s="13" t="s">
-        <v>239</v>
-      </c>
+      <c r="AJ40" s="13"/>
       <c r="AK40" s="13"/>
       <c r="AL40" s="13"/>
       <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
+      <c r="AN40" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="AO40" s="13"/>
       <c r="AP40" s="13"/>
       <c r="AQ40" s="10" t="s">
@@ -7162,26 +6845,22 @@
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="11" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="G41" s="21">
         <v>6</v>
       </c>
       <c r="H41" s="21">
-        <v>3</v>
-      </c>
-      <c r="I41" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>3</v>
@@ -7195,21 +6874,17 @@
       <c r="N41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="O41" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S41" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
       <c r="V41" s="13" t="s">
         <v>3</v>
       </c>
@@ -7219,14 +6894,14 @@
       <c r="X41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y41" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB41" s="13"/>
+      <c r="AB41" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC41" s="13"/>
       <c r="AD41" s="13" t="s">
         <v>3</v>
@@ -7236,13 +6911,13 @@
       <c r="AG41" s="13"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="13"/>
-      <c r="AJ41" s="13" t="s">
-        <v>242</v>
-      </c>
+      <c r="AJ41" s="13"/>
       <c r="AK41" s="13"/>
       <c r="AL41" s="13"/>
       <c r="AM41" s="13"/>
-      <c r="AN41" s="13"/>
+      <c r="AN41" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="AO41" s="13"/>
       <c r="AP41" s="13"/>
       <c r="AQ41" s="10" t="s">
@@ -7255,26 +6930,22 @@
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="11" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="G42" s="21">
         <v>6</v>
       </c>
       <c r="H42" s="21">
-        <v>3</v>
-      </c>
-      <c r="I42" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>3</v>
@@ -7288,21 +6959,17 @@
       <c r="N42" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="O42" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U42" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S42" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
       <c r="V42" s="13" t="s">
         <v>3</v>
       </c>
@@ -7312,30 +6979,32 @@
       <c r="X42" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y42" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB42" s="13"/>
+      <c r="AB42" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC42" s="13"/>
       <c r="AD42" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE42" s="13"/>
       <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
+      <c r="AG42" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AH42" s="17"/>
       <c r="AI42" s="13"/>
-      <c r="AJ42" s="13" t="s">
-        <v>245</v>
-      </c>
+      <c r="AJ42" s="13"/>
       <c r="AK42" s="13"/>
       <c r="AL42" s="13"/>
       <c r="AM42" s="13"/>
-      <c r="AN42" s="13"/>
+      <c r="AN42" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="AO42" s="13"/>
       <c r="AP42" s="13"/>
       <c r="AQ42" s="10" t="s">
@@ -7348,30 +7017,24 @@
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="11" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="G43" s="21">
         <v>6</v>
       </c>
       <c r="H43" s="21">
-        <v>3</v>
-      </c>
-      <c r="I43" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K43" s="13"/>
       <c r="L43" s="13" t="s">
         <v>3</v>
       </c>
@@ -7381,7 +7044,9 @@
       <c r="N43" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="13"/>
+      <c r="O43" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="P43" s="13" t="s">
         <v>3</v>
       </c>
@@ -7389,30 +7054,26 @@
         <v>3</v>
       </c>
       <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S43" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
       <c r="V43" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W43" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="W43" s="13"/>
       <c r="X43" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y43" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB43" s="13"/>
+      <c r="AB43" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC43" s="13"/>
       <c r="AD43" s="13" t="s">
         <v>3</v>
@@ -7422,13 +7083,13 @@
       <c r="AG43" s="13"/>
       <c r="AH43" s="17"/>
       <c r="AI43" s="13"/>
-      <c r="AJ43" s="13" t="s">
-        <v>248</v>
-      </c>
+      <c r="AJ43" s="13"/>
       <c r="AK43" s="13"/>
       <c r="AL43" s="13"/>
       <c r="AM43" s="13"/>
-      <c r="AN43" s="13"/>
+      <c r="AN43" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="AO43" s="13"/>
       <c r="AP43" s="13"/>
       <c r="AQ43" s="10" t="s">
@@ -7441,30 +7102,24 @@
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
       <c r="F44" s="11" t="s">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="G44" s="21">
         <v>6</v>
       </c>
       <c r="H44" s="21">
-        <v>3</v>
-      </c>
-      <c r="I44" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="K44" s="13"/>
       <c r="L44" s="13" t="s">
         <v>3</v>
       </c>
@@ -7474,7 +7129,9 @@
       <c r="N44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="13"/>
+      <c r="O44" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="P44" s="13" t="s">
         <v>3</v>
       </c>
@@ -7482,46 +7139,44 @@
         <v>3</v>
       </c>
       <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U44" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S44" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
       <c r="V44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="W44" s="13"/>
       <c r="X44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB44" s="13"/>
+      <c r="AB44" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC44" s="13"/>
       <c r="AD44" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE44" s="13"/>
       <c r="AF44" s="13"/>
-      <c r="AG44" s="13"/>
+      <c r="AG44" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AH44" s="17"/>
       <c r="AI44" s="13"/>
-      <c r="AJ44" s="13" t="s">
-        <v>251</v>
-      </c>
+      <c r="AJ44" s="13"/>
       <c r="AK44" s="13"/>
       <c r="AL44" s="13"/>
       <c r="AM44" s="13"/>
-      <c r="AN44" s="13"/>
+      <c r="AN44" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="AO44" s="13"/>
       <c r="AP44" s="13"/>
       <c r="AQ44" s="10" t="s">
@@ -7534,26 +7189,22 @@
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="11" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="G45" s="21">
         <v>6</v>
       </c>
       <c r="H45" s="21">
-        <v>3</v>
-      </c>
-      <c r="I45" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="K45" s="13" t="s">
         <v>3</v>
@@ -7567,7 +7218,9 @@
       <c r="N45" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="13"/>
+      <c r="O45" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="P45" s="13" t="s">
         <v>3</v>
       </c>
@@ -7575,13 +7228,11 @@
         <v>3</v>
       </c>
       <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S45" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
       <c r="V45" s="13" t="s">
         <v>3</v>
       </c>
@@ -7591,14 +7242,14 @@
       <c r="X45" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y45" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB45" s="13"/>
+      <c r="AB45" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC45" s="13"/>
       <c r="AD45" s="13" t="s">
         <v>3</v>
@@ -7608,13 +7259,13 @@
       <c r="AG45" s="13"/>
       <c r="AH45" s="17"/>
       <c r="AI45" s="13"/>
-      <c r="AJ45" s="13" t="s">
-        <v>254</v>
-      </c>
+      <c r="AJ45" s="13"/>
       <c r="AK45" s="13"/>
       <c r="AL45" s="13"/>
       <c r="AM45" s="13"/>
-      <c r="AN45" s="13"/>
+      <c r="AN45" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="AO45" s="13"/>
       <c r="AP45" s="13"/>
       <c r="AQ45" s="10" t="s">
@@ -7627,26 +7278,22 @@
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="11" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="G46" s="21">
         <v>6</v>
       </c>
       <c r="H46" s="21">
-        <v>3</v>
-      </c>
-      <c r="I46" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="K46" s="13" t="s">
         <v>3</v>
@@ -7660,7 +7307,9 @@
       <c r="N46" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="13"/>
+      <c r="O46" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="P46" s="13" t="s">
         <v>3</v>
       </c>
@@ -7668,13 +7317,11 @@
         <v>3</v>
       </c>
       <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S46" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
       <c r="V46" s="13" t="s">
         <v>3</v>
       </c>
@@ -7684,30 +7331,32 @@
       <c r="X46" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB46" s="13"/>
+      <c r="AB46" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE46" s="13"/>
       <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
+      <c r="AG46" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AH46" s="17"/>
       <c r="AI46" s="13"/>
-      <c r="AJ46" s="13" t="s">
-        <v>257</v>
-      </c>
+      <c r="AJ46" s="13"/>
       <c r="AK46" s="13"/>
       <c r="AL46" s="13"/>
       <c r="AM46" s="13"/>
-      <c r="AN46" s="13"/>
+      <c r="AN46" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="AO46" s="13"/>
       <c r="AP46" s="13"/>
       <c r="AQ46" s="10" t="s">
@@ -7721,69 +7370,53 @@
       <c r="B47" s="16"/>
       <c r="C47" s="15"/>
       <c r="D47" s="10" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="G47" s="21">
         <v>6</v>
       </c>
       <c r="H47" s="21">
-        <v>3</v>
-      </c>
-      <c r="I47" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K47" s="13"/>
       <c r="L47" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="M47" s="13"/>
       <c r="N47" s="13" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="13"/>
-      <c r="P47" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="R47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="S47" s="13"/>
-      <c r="T47" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
       <c r="V47" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W47" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="W47" s="13"/>
       <c r="X47" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y47" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
-      <c r="AA47" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
       <c r="AD47" s="13" t="s">
@@ -7794,14 +7427,14 @@
       <c r="AG47" s="13"/>
       <c r="AH47" s="17"/>
       <c r="AI47" s="13"/>
-      <c r="AJ47" s="13" t="s">
-        <v>260</v>
-      </c>
+      <c r="AJ47" s="13"/>
       <c r="AK47" s="13"/>
       <c r="AL47" s="13"/>
       <c r="AM47" s="13"/>
       <c r="AN47" s="13"/>
-      <c r="AO47" s="13"/>
+      <c r="AO47" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="AP47" s="13"/>
       <c r="AQ47" s="10" t="s">
         <v>87</v>
@@ -7814,13 +7447,13 @@
       <c r="B48" s="16"/>
       <c r="C48" s="15"/>
       <c r="D48" s="10" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c r="G48" s="21">
         <v>6</v>
@@ -7828,15 +7461,13 @@
       <c r="H48" s="21">
         <v>3</v>
       </c>
-      <c r="I48" s="28" t="s">
+      <c r="I48" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="K48" s="13"/>
       <c r="L48" s="13" t="s">
         <v>3</v>
       </c>
@@ -7850,17 +7481,13 @@
       <c r="P48" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U48" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S48" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
       <c r="V48" s="13" t="s">
         <v>3</v>
       </c>
@@ -7883,19 +7510,21 @@
         <v>3</v>
       </c>
       <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
+      <c r="AF48" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="17"/>
       <c r="AI48" s="13"/>
-      <c r="AJ48" s="13" t="s">
-        <v>263</v>
-      </c>
+      <c r="AJ48" s="13"/>
       <c r="AK48" s="13"/>
       <c r="AL48" s="13"/>
       <c r="AM48" s="13"/>
       <c r="AN48" s="13"/>
       <c r="AO48" s="13"/>
-      <c r="AP48" s="13"/>
+      <c r="AP48" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="AQ48" s="10" t="s">
         <v>87</v>
       </c>
@@ -7903,33 +7532,31 @@
       <c r="AS48" s="10"/>
     </row>
     <row r="49" spans="1:45">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="15"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="10" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="G49" s="21">
         <v>6</v>
       </c>
       <c r="H49" s="21">
-        <v>3</v>
-      </c>
-      <c r="I49" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K49" s="13"/>
       <c r="L49" s="13" t="s">
         <v>3</v>
       </c>
@@ -7943,17 +7570,13 @@
       <c r="P49" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U49" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="S49" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
       <c r="V49" s="13" t="s">
         <v>3</v>
       </c>
@@ -7970,44 +7593,48 @@
       <c r="AA49" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB49" s="13"/>
+      <c r="AB49" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC49" s="13"/>
       <c r="AD49" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
+      <c r="AF49" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AG49" s="13"/>
-      <c r="AH49" s="17"/>
+      <c r="AH49" s="20"/>
       <c r="AI49" s="13"/>
-      <c r="AJ49" s="13" t="s">
-        <v>266</v>
-      </c>
+      <c r="AJ49" s="13"/>
       <c r="AK49" s="13"/>
       <c r="AL49" s="13"/>
       <c r="AM49" s="13"/>
       <c r="AN49" s="13"/>
       <c r="AO49" s="13"/>
-      <c r="AP49" s="13"/>
+      <c r="AP49" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="AQ49" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AR49" s="17"/>
+      <c r="AR49" s="20"/>
       <c r="AS49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AI8:AP8"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AS8:AS9"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="K7:AG7"/>
     <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="AI8:AP8"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AS8:AS9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8025,8 +7652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A7C6AE-B26F-4C6E-9B90-1843DB0B79A4}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AP10" sqref="AJ10:AP10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:AP49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8115,31 +7742,31 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="31"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="30"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
@@ -8153,33 +7780,33 @@
       <c r="AR7" s="4"/>
     </row>
     <row r="8" spans="1:45" ht="12" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
@@ -8196,26 +7823,26 @@
       <c r="AE8" s="23"/>
       <c r="AF8" s="23"/>
       <c r="AG8" s="23"/>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AI8" s="29" t="s">
+      <c r="AI8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="32" t="s">
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="AR8" s="32" t="s">
+      <c r="AR8" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AS8" s="32" t="s">
+      <c r="AS8" s="31" t="s">
         <v>152</v>
       </c>
     </row>
@@ -8229,13 +7856,13 @@
       <c r="C9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="22" t="s">
         <v>52</v>
       </c>
@@ -8305,7 +7932,7 @@
       <c r="AG9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AH9" s="33"/>
+      <c r="AH9" s="32"/>
       <c r="AI9" s="7" t="s">
         <v>4</v>
       </c>
@@ -8330,9 +7957,9 @@
       <c r="AP9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="8" t="s">

--- a/ReadExcel/Import/Test.xlsx
+++ b/ReadExcel/Import/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\OpenXMLNew\ReadExcel\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD2AEC-0419-4889-9A01-ACEA0B80FFD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C4BB8B-37DB-4852-AF1D-F40E37B6E767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="375" windowWidth="19155" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="153">
   <si>
     <t>4D</t>
   </si>
@@ -494,12 +494,6 @@
   </si>
   <si>
     <t>Error Description</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -3637,7 +3631,7 @@
   <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3939,11 +3933,15 @@
       <c r="AS9" s="32"/>
     </row>
     <row r="10" spans="1:45">
-      <c r="A10" s="8"/>
+      <c r="A10" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="B10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
@@ -3988,9 +3986,7 @@
       <c r="S10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T10" s="13" t="s">
-        <v>153</v>
-      </c>
+      <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13" t="s">
         <v>3</v>
@@ -4004,9 +4000,7 @@
       <c r="Y10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Z10" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="Z10" s="13"/>
       <c r="AA10" s="13" t="s">
         <v>3</v>
       </c>
@@ -4042,13 +4036,9 @@
       <c r="AS10" s="10"/>
     </row>
     <row r="11" spans="1:45">
-      <c r="A11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
@@ -4509,17 +4499,11 @@
       <c r="AS15" s="10"/>
     </row>
     <row r="16" spans="1:45">
-      <c r="A16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>81</v>
@@ -4531,13 +4515,13 @@
         <v>6</v>
       </c>
       <c r="H16" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>3</v>
@@ -4578,25 +4562,33 @@
       <c r="Y16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AA16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
+      <c r="AB16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AD16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AE16" s="13"/>
+      <c r="AE16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AF16" s="13"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="17"/>
       <c r="AI16" s="13"/>
-      <c r="AJ16" s="13" t="s">
-        <v>90</v>
-      </c>
+      <c r="AJ16" s="13"/>
       <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
+      <c r="AL16" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="AM16" s="13"/>
       <c r="AN16" s="13"/>
       <c r="AO16" s="13"/>
@@ -4608,17 +4600,11 @@
       <c r="AS16" s="10"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>81</v>
@@ -4630,17 +4616,15 @@
         <v>6</v>
       </c>
       <c r="H17" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K17" s="13"/>
       <c r="L17" s="13" t="s">
         <v>3</v>
       </c>
@@ -4651,12 +4635,8 @@
         <v>3</v>
       </c>
       <c r="O17" s="13"/>
-      <c r="P17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13" t="s">
         <v>3</v>
@@ -4666,39 +4646,33 @@
       <c r="V17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W17" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="W17" s="13"/>
       <c r="X17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y17" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB17" s="13"/>
+      <c r="AB17" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC17" s="13"/>
       <c r="AD17" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AE17" s="13"/>
-      <c r="AF17" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
-      <c r="AH17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI17" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="13"/>
       <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
+      <c r="AM17" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="AN17" s="13"/>
       <c r="AO17" s="13"/>
       <c r="AP17" s="13"/>
@@ -5540,17 +5514,11 @@
       <c r="AS26" s="10"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="A27" s="15"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="10" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>81</v>
@@ -5562,17 +5530,15 @@
         <v>6</v>
       </c>
       <c r="H27" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K27" s="13"/>
       <c r="L27" s="13" t="s">
         <v>3</v>
       </c>
@@ -5590,11 +5556,13 @@
         <v>3</v>
       </c>
       <c r="R27" s="13"/>
-      <c r="S27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="V27" s="13" t="s">
         <v>3</v>
       </c>
@@ -5611,7 +5579,9 @@
       <c r="AA27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB27" s="13"/>
+      <c r="AB27" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="AC27" s="13"/>
       <c r="AD27" s="13" t="s">
         <v>3</v>
@@ -5621,19 +5591,17 @@
         <v>3</v>
       </c>
       <c r="AG27" s="13"/>
-      <c r="AH27" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI27" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="13"/>
       <c r="AL27" s="13"/>
       <c r="AM27" s="13"/>
       <c r="AN27" s="13"/>
       <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
+      <c r="AP27" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="AQ27" s="10" t="s">
         <v>87</v>
       </c>
